--- a/Kimeco_ASP/App_Data/uploads/Cash_Total_Report.xlsx
+++ b/Kimeco_ASP/App_Data/uploads/Cash_Total_Report.xlsx
@@ -1453,7 +1453,6 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -5998,7 +5997,7 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
